--- a/docs/data/internet_activity/internet_speeds.xlsx
+++ b/docs/data/internet_activity/internet_speeds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blake/Sync/School/School_2021/semester_2/FIT3179_data_vis/WEEK_10_HOMEWORK/docs/data/internet_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB147A91-329D-5348-BCB2-1CFE8C003AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA5F908C-2B36-6149-8958-E27D25704415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24400" yWindow="1500" windowWidth="26800" windowHeight="16860" xr2:uid="{40D9F12E-02F8-8742-97E7-8280F53721C6}"/>
+    <workbookView xWindow="5360" yWindow="1580" windowWidth="34700" windowHeight="16860" xr2:uid="{40D9F12E-02F8-8742-97E7-8280F53721C6}"/>
   </bookViews>
   <sheets>
     <sheet name="internet_speeds" sheetId="1" r:id="rId1"/>
@@ -34,25 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
-  <si>
-    <t>lt_226kbps</t>
-  </si>
-  <si>
-    <t>from_256_kbps_to_512_kbps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from_512_kbps_to_1_5_Mbps </t>
-  </si>
-  <si>
-    <t xml:space="preserve">from_1_5_Mbps _to_8_Mbps </t>
-  </si>
-  <si>
-    <t xml:space="preserve">from_8_Mbps_to_24_Mbps </t>
-  </si>
-  <si>
-    <t>gt_24_Mbps</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="9">
   <si>
     <t>year</t>
   </si>
@@ -61,6 +43,24 @@
   </si>
   <si>
     <t>num_users</t>
+  </si>
+  <si>
+    <t>&lt; 256kbps</t>
+  </si>
+  <si>
+    <t>256kbps - 512kbps</t>
+  </si>
+  <si>
+    <t>512kbps - 1.5Mbps</t>
+  </si>
+  <si>
+    <t>1.5Mbps - 8Mbps</t>
+  </si>
+  <si>
+    <t>8Mbps - 24Mbps</t>
+  </si>
+  <si>
+    <t>&gt; 24Mbps</t>
   </si>
 </sst>
 </file>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927C734B-ECD9-3848-A410-ACD07A3116ED}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C75" sqref="A29:C75"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,13 +449,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -463,7 +463,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>2757</v>
@@ -474,7 +474,7 @@
         <v>2006</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>4193</v>
@@ -485,7 +485,7 @@
         <v>2007</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1887</v>
@@ -496,7 +496,7 @@
         <v>2005</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1327</v>
@@ -507,7 +507,7 @@
         <v>2006</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>659</v>
@@ -518,7 +518,7 @@
         <v>2007</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>1580</v>
@@ -529,7 +529,7 @@
         <v>2005</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1442</v>
@@ -540,7 +540,7 @@
         <v>2006</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>529</v>
@@ -551,7 +551,7 @@
         <v>2007</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>1121</v>
@@ -562,7 +562,7 @@
         <v>2005</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>2006</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>2007</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>1045</v>
@@ -595,7 +595,7 @@
         <v>2005</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>2006</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>2007</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>1293</v>
@@ -628,7 +628,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>180</v>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>3849</v>
@@ -674,7 +674,7 @@
         <v>2001</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>3968</v>
@@ -685,7 +685,7 @@
         <v>2002</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>4299</v>
@@ -696,7 +696,7 @@
         <v>2003</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>5076</v>
@@ -707,7 +707,7 @@
         <v>2004</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>5220</v>
@@ -718,7 +718,7 @@
         <v>2008</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>1293</v>
@@ -729,7 +729,7 @@
         <v>2008</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>2607</v>
@@ -740,7 +740,7 @@
         <v>2008</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>2002</v>
@@ -751,7 +751,7 @@
         <v>2008</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>1650</v>
@@ -762,7 +762,7 @@
         <v>2008</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>373</v>
@@ -773,7 +773,7 @@
         <v>2009</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>1103</v>
@@ -784,7 +784,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>2546</v>
@@ -795,7 +795,7 @@
         <v>2009</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>2529</v>
@@ -806,7 +806,7 @@
         <v>2009</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>1800</v>
@@ -817,7 +817,7 @@
         <v>2009</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <v>443</v>
@@ -828,7 +828,7 @@
         <v>2010</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>785</v>
@@ -839,7 +839,7 @@
         <v>2010</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>1951</v>
@@ -850,7 +850,7 @@
         <v>2010</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C37">
         <v>3540</v>
@@ -861,7 +861,7 @@
         <v>2010</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>2591</v>
@@ -872,7 +872,7 @@
         <v>2010</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>632</v>
@@ -883,7 +883,7 @@
         <v>2011</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>579</v>
@@ -894,7 +894,7 @@
         <v>2011</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>812</v>
@@ -905,7 +905,7 @@
         <v>2011</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>4614</v>
@@ -916,7 +916,7 @@
         <v>2011</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>3913</v>
@@ -927,7 +927,7 @@
         <v>2011</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>989</v>
@@ -938,7 +938,7 @@
         <v>2012</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>436</v>
@@ -949,7 +949,7 @@
         <v>2012</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>980</v>
@@ -960,7 +960,7 @@
         <v>2012</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>5067</v>
@@ -971,7 +971,7 @@
         <v>2012</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C48">
         <v>4094</v>
@@ -982,7 +982,7 @@
         <v>2012</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>1458</v>
@@ -993,7 +993,7 @@
         <v>2013</v>
       </c>
       <c r="B50" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>232</v>
@@ -1004,7 +1004,7 @@
         <v>2013</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>294</v>
@@ -1015,7 +1015,7 @@
         <v>2013</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>3971</v>
@@ -1026,7 +1026,7 @@
         <v>2013</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>5976</v>
@@ -1037,7 +1037,7 @@
         <v>2013</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>1785</v>
@@ -1048,7 +1048,7 @@
         <v>2014</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>186</v>
@@ -1059,7 +1059,7 @@
         <v>2014</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>256</v>
@@ -1070,7 +1070,7 @@
         <v>2014</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>3758</v>
@@ -1081,7 +1081,7 @@
         <v>2014</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C58">
         <v>6252</v>
@@ -1092,7 +1092,7 @@
         <v>2014</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59">
         <v>2030</v>
@@ -1103,7 +1103,7 @@
         <v>2015</v>
       </c>
       <c r="B60" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>89</v>
@@ -1114,7 +1114,7 @@
         <v>2015</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C61">
         <v>147</v>
@@ -1125,7 +1125,7 @@
         <v>2015</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C62">
         <v>2326</v>
@@ -1136,10 +1136,10 @@
         <v>2015</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>10201</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1147,10 +1147,10 @@
         <v>2015</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -1158,7 +1158,7 @@
         <v>2016</v>
       </c>
       <c r="B65" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>99</v>
@@ -1169,7 +1169,7 @@
         <v>2016</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>101</v>
@@ -1180,7 +1180,7 @@
         <v>2016</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67">
         <v>1963</v>
@@ -1191,7 +1191,7 @@
         <v>2016</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>3592</v>
@@ -1202,7 +1202,7 @@
         <v>2016</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <v>7542</v>
@@ -1215,7 +1215,7 @@
         <v>2017</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C70">
         <v>2552</v>
@@ -1228,7 +1228,7 @@
         <v>2017</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71">
         <v>8464</v>
@@ -1241,7 +1241,7 @@
         <v>2017</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C72">
         <v>1672</v>
@@ -1254,7 +1254,7 @@
         <v>2018</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>3598</v>
@@ -1265,7 +1265,7 @@
         <v>2018</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74">
         <f>9170+471</f>
@@ -1277,15 +1277,464 @@
         <v>2018</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C75">
         <v>1592</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2008</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2009</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2010</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2011</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2013</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2014</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2015</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2016</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2017</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2018</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2016</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2017</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2018</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2000</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2001</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2002</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2003</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2004</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2000</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2001</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2002</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2003</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2004</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2017</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2018</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2000</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2001</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2002</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2003</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2004</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2000</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2001</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2002</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>2003</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>2004</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>2000</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>2001</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>2002</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>2003</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2004</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
